--- a/src/main/resources/test-data/data.xlsx
+++ b/src/main/resources/test-data/data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simtran/=0o0= Sim's Data/Work/My Project/STAutomationFramework/src/main/resources/test-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simtran/=0o0= Sim's Data/Work/My Project/WebAutomationFramework/src/main/resources/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3B7F5A-C01F-F74D-80D3-2D65B23B7332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB936B4F-8AB2-C049-BD3B-B99B78B273F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21240" xr2:uid="{799D1D1F-6681-5346-AEAB-A6F903093CEC}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21240" activeTab="1" xr2:uid="{799D1D1F-6681-5346-AEAB-A6F903093CEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="2" r:id="rId1"/>
+    <sheet name="DiscountType" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Category name</t>
   </si>
@@ -48,6 +49,15 @@
   </si>
   <si>
     <t>Shop men</t>
+  </si>
+  <si>
+    <t>Discount Type</t>
+  </si>
+  <si>
+    <t>fixed_discount_to_entire_order</t>
+  </si>
+  <si>
+    <t>percentage_discount_to_entire_order</t>
   </si>
 </sst>
 </file>
@@ -422,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D4DC6E-6028-D244-BDFE-B413B64AD8FB}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -454,4 +464,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB72AB9F-442B-3049-8626-BB30BCC7909F}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="54.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>